--- a/public/assets/templates/students_format.xlsx
+++ b/public/assets/templates/students_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cinta Ramayanti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD558E-B8DA-4447-9BFB-E895E04F0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8CFA25-16A3-4427-986C-355898A782C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8637288-C4F2-4DE5-B33D-3F36B8DC579F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -48,22 +48,31 @@
     <t>jenis_kelamin</t>
   </si>
   <si>
-    <t>ningning</t>
-  </si>
-  <si>
-    <t>ningning@gmail.com</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>karina</t>
-  </si>
-  <si>
-    <t>karina@gmail.com</t>
+    <t>package</t>
+  </si>
+  <si>
+    <t>haiya, halo, tes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private pool, junior </t>
+  </si>
+  <si>
+    <t>januari</t>
+  </si>
+  <si>
+    <t>februari</t>
+  </si>
+  <si>
+    <t>januari@gmail.com</t>
+  </si>
+  <si>
+    <t>februari@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -108,10 +117,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60C06D4-EACE-4C29-8724-D517670E4278}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,9 +453,9 @@
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -457,16 +469,19 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>45942</v>
@@ -474,22 +489,28 @@
       <c r="E2" s="2">
         <v>45950</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>37794</v>
       </c>
       <c r="E3" s="2">
         <v>37788</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
